--- a/estimates/G8.xlsx
+++ b/estimates/G8.xlsx
@@ -550,8 +550,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -875,9 +878,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="33.140625" customWidth="1"/>
+    <col min="13" max="13" width="58.7109375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -910,13 +930,13 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -933,7 +953,7 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L2" t="s">

--- a/estimates/G8.xlsx
+++ b/estimates/G8.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>estimate</t>
   </si>
@@ -60,13 +60,19 @@
     <t>notes</t>
   </si>
   <si>
-    <t>enrollmentrate_change</t>
-  </si>
-  <si>
     <t>Marcus &amp; Zambre (2019) Table 2 Baseline</t>
   </si>
   <si>
     <t>https://ideas.repec.org/a/uwp/jhriss/v54y2019i2p468-502.html</t>
+  </si>
+  <si>
+    <t>Marcus &amp; Zambre (2019) Table 5</t>
+  </si>
+  <si>
+    <t>drop_out_pp</t>
+  </si>
+  <si>
+    <t>enrollment_rate_change_pp</t>
   </si>
 </sst>
 </file>
@@ -876,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +948,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>-5.0999999999999997E-2</v>
@@ -954,13 +960,34 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0.01</v>
+      </c>
+      <c r="C3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>